--- a/pm/프로젝트일정.xlsx
+++ b/pm/프로젝트일정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai-quant\Project_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai-quant\Project_3\MyIndicator\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DFB1F7-9B8B-437B-862C-6EDCFCDB30E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD610E-6C32-4FDB-A416-557CDC4D6C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF768A85-955E-4D5F-8734-F092032FA058}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EF768A85-955E-4D5F-8734-F092032FA058}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
   <si>
     <t>기획</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드 리뷰 수행하면서 발견되는 버그 수정 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,6 +359,34 @@
   </si>
   <si>
     <t>~/프로젝트 소스 tree info.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복되는 데이터 로딩 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 픽스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readme 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과보고서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readme..md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로직 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,36 +534,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor rgb="FF999999"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -917,115 +929,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1033,7 +936,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,7 +1011,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1116,26 +1018,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1153,14 +1053,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1195,12 +1087,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1213,6 +1099,14 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1541,10 +1435,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="95"/>
+      <c r="C2" s="80"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -1643,11 +1537,11 @@
   </sheetPr>
   <dimension ref="A1:Z931"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1655,10 +1549,10 @@
     <col min="1" max="1" width="21.125" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" style="76" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.75" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" style="21" customWidth="1"/>
     <col min="9" max="9" width="39" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="25" width="6.5" style="21" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6.5" style="21" customWidth="1"/>
@@ -1675,10 +1569,10 @@
       <c r="C1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="67" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -1687,10 +1581,10 @@
       <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="68" t="s">
+      <c r="H1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="65" t="s">
         <v>51</v>
       </c>
       <c r="J1" s="14">
@@ -1749,31 +1643,31 @@
       <c r="A2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="77">
+        <v>76</v>
+      </c>
+      <c r="D2" s="68">
         <v>46049</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="69">
         <v>46049</v>
       </c>
       <c r="F2" s="24">
         <v>1</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="70" t="s">
-        <v>76</v>
+      <c r="H2" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="89"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
@@ -1792,791 +1686,845 @@
       <c r="Z2" s="25"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="59" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="70">
         <v>46049</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="71">
         <v>46049</v>
       </c>
       <c r="F3" s="30">
         <f>E3-D3+1</f>
         <v>1</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="88"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="33"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="32"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="36"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="35"/>
       <c r="X3" s="29"/>
-      <c r="Y3" s="35"/>
+      <c r="Y3" s="34"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="81">
+      <c r="C4" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="72">
         <v>46049</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="73">
         <v>46049</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <f>E4-D4+1</f>
         <v>1</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="H4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="89"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="38"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="61" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="79">
+        <v>77</v>
+      </c>
+      <c r="D5" s="70">
         <v>46049</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="71">
         <v>46049</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="48">
         <f>E5-D5+1</f>
         <v>1</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="45"/>
+      <c r="H5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="90"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
-      <c r="P5" s="36"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="36"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="35"/>
       <c r="X5" s="29"/>
-      <c r="Y5" s="35"/>
+      <c r="Y5" s="34"/>
       <c r="Z5" s="31"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="83">
+      <c r="A6" s="83"/>
+      <c r="B6" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="74">
         <v>46049</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="75">
         <v>46051</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="49">
         <f t="shared" ref="F6:F7" si="0">E6-D6+1</f>
         <v>3</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="91"/>
-      <c r="I6" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="P6" s="47"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="47"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="46"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="P6" s="44"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="44"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="43"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="83">
+      <c r="A7" s="83"/>
+      <c r="B7" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="74">
         <v>46051</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="75">
         <v>46053</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="49">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="P7" s="47"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="47"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="46"/>
+      <c r="G7" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="P7" s="44"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="44"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="43"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="81">
+      <c r="C8" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="72">
         <v>46054</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="73">
         <v>46054</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="50">
         <v>1</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="39"/>
+      <c r="G8" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="38"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="34"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="36"/>
+      <c r="P9" s="35"/>
       <c r="Q9" s="29"/>
       <c r="R9" s="29"/>
       <c r="S9" s="29"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="36"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="35"/>
       <c r="X9" s="29"/>
-      <c r="Y9" s="35"/>
+      <c r="Y9" s="34"/>
       <c r="Z9" s="31"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="67" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="83">
+      <c r="C10" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="74">
         <v>46052</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="75">
         <v>46052</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="49">
         <f>E10-D10+1</f>
         <v>1</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="N10" s="48"/>
-      <c r="P10" s="47"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="47"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="46"/>
+      <c r="G10" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
+      <c r="N10" s="45"/>
+      <c r="P10" s="44"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="44"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="43"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="67" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="83">
+      <c r="C11" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="74">
         <v>46052</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="75">
         <v>46052</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="49">
         <f t="shared" ref="F11:F15" si="1">E11-D11+1</f>
         <v>1</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="N11" s="48"/>
-      <c r="P11" s="47"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="47"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="46"/>
+      <c r="G11" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="N11" s="45"/>
+      <c r="P11" s="44"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="44"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="43"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="P12" s="47"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="47"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="46"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
+      <c r="P12" s="44"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="44"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="43"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="74">
         <v>46053</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="75">
         <v>46053</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="49">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="N13" s="48"/>
-      <c r="P13" s="47"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="47"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="46"/>
+      <c r="G13" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
+      <c r="N13" s="45"/>
+      <c r="P13" s="44"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="44"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="43"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="67" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="74">
         <v>46053</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="75">
         <v>46053</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="49">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-      <c r="N14" s="48"/>
-      <c r="P14" s="47"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="47"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="46"/>
+      <c r="G14" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="N14" s="45"/>
+      <c r="P14" s="44"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="44"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="43"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="63" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="81">
+      <c r="C15" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="72">
         <v>46053</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="73">
         <v>46053</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="49">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="39"/>
+      <c r="G15" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="38"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="79">
+      <c r="B16" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="70">
         <v>46055</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="71">
         <v>46055</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="48">
         <v>1</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="34"/>
+      <c r="G16" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
-      <c r="P16" s="55"/>
+      <c r="P16" s="52"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
       <c r="U16" s="29"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="36"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="35"/>
       <c r="X16" s="29"/>
-      <c r="Y16" s="35"/>
+      <c r="Y16" s="34"/>
       <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="39"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="38"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="79">
+      <c r="B18" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="70">
         <v>46056</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="71">
         <v>46058</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="48">
         <v>3</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="34"/>
+      <c r="G18" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
       <c r="T18" s="29"/>
       <c r="U18" s="29"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="36"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="35"/>
       <c r="X18" s="29"/>
-      <c r="Y18" s="35"/>
+      <c r="Y18" s="34"/>
       <c r="Z18" s="31"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="39"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="38"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="79">
+      <c r="B20" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="70">
         <v>46059</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="71">
         <v>46060</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="48">
         <v>2</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="34"/>
+      <c r="G20" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
-      <c r="P20" s="36"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="36"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="35"/>
       <c r="X20" s="29"/>
-      <c r="Y20" s="35"/>
+      <c r="Y20" s="34"/>
       <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="39"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="38"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="79">
+      <c r="B22" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="70">
         <v>46060</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="71">
         <v>46061</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="48">
         <v>2</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="34"/>
+      <c r="G22" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
-      <c r="P22" s="36"/>
+      <c r="P22" s="35"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
       <c r="T22" s="29"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="36"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="35"/>
       <c r="X22" s="29"/>
-      <c r="Y22" s="35"/>
+      <c r="Y22" s="34"/>
       <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="39"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="38"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="59" t="s">
+        <v>88</v>
+      </c>
       <c r="C24" s="31"/>
-      <c r="D24" s="79">
+      <c r="D24" s="70">
         <v>46062</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="71">
         <v>46063</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="48">
         <v>1</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="34"/>
+      <c r="G24" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
-      <c r="P24" s="36"/>
+      <c r="P24" s="35"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
       <c r="S24" s="29"/>
       <c r="T24" s="29"/>
       <c r="U24" s="29"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="35"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="34"/>
       <c r="Z24" s="31"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="39"/>
+      <c r="B25" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="38"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="61"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="77">
+      <c r="D26" s="68">
         <v>46064</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="69">
         <v>46064</v>
       </c>
       <c r="F26" s="24">
         <v>1</v>
       </c>
       <c r="G26" s="27"/>
-      <c r="H26" s="70"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="28"/>
       <c r="J26" s="26"/>
       <c r="K26" s="23"/>
@@ -2593,97 +2541,99 @@
       <c r="V26" s="28"/>
       <c r="W26" s="27"/>
       <c r="X26" s="23"/>
-      <c r="Y26" s="58"/>
+      <c r="Y26" s="55"/>
       <c r="Z26" s="25"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="62"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="79">
+      <c r="D27" s="70">
         <v>46072</v>
       </c>
-      <c r="E27" s="80">
+      <c r="E27" s="71">
         <v>46072</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="48">
         <v>1</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
-      <c r="P27" s="36"/>
+      <c r="P27" s="35"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="29"/>
       <c r="T27" s="29"/>
       <c r="U27" s="29"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="36"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="35"/>
       <c r="X27" s="29"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="59"/>
-    </row>
-    <row r="28" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="97" t="s">
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="56"/>
+    </row>
+    <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="39"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="38"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
+      <c r="A29" s="57"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="91"/>
+    </row>
+    <row r="40" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3646,7 +3596,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
@@ -3664,7 +3614,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -3680,7 +3630,7 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>41</v>
@@ -3696,7 +3646,7 @@
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
